--- a/updated_data_sheet_t.xlsx
+++ b/updated_data_sheet_t.xlsx
@@ -666,6 +666,11 @@
           <t>https://aws.amazon.com/certification/</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AWS Certified Advanced Networking - Specialty</t>
+        </is>
+      </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
           <t>Amazon</t>
@@ -675,6 +680,11 @@
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>AWS Certified Advanced Networking - Specialty - Amazon</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Certificate exists but with a slight different name.</t>
         </is>
       </c>
     </row>
